--- a/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Gnai2-Igf1r.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H2">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J2">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N2">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O2">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P2">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q2">
-        <v>2012.397788781144</v>
+        <v>2184.805138816992</v>
       </c>
       <c r="R2">
-        <v>2012.397788781144</v>
+        <v>19663.24624935293</v>
       </c>
       <c r="S2">
-        <v>0.148345539283673</v>
+        <v>0.1454115498565269</v>
       </c>
       <c r="T2">
-        <v>0.148345539283673</v>
+        <v>0.1454115498565269</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H3">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J3">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N3">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O3">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P3">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q3">
-        <v>2033.798351922059</v>
+        <v>2160.533807174425</v>
       </c>
       <c r="R3">
-        <v>2033.798351922059</v>
+        <v>19444.80426456983</v>
       </c>
       <c r="S3">
-        <v>0.1499230991964357</v>
+        <v>0.1437961508955292</v>
       </c>
       <c r="T3">
-        <v>0.1499230991964357</v>
+        <v>0.1437961508955292</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H4">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J4">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N4">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O4">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P4">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q4">
-        <v>379.0906735962948</v>
+        <v>433.1136292053648</v>
       </c>
       <c r="R4">
-        <v>379.0906735962948</v>
+        <v>3898.022662848284</v>
       </c>
       <c r="S4">
-        <v>0.02794497724334816</v>
+        <v>0.02882624311330524</v>
       </c>
       <c r="T4">
-        <v>0.02794497724334816</v>
+        <v>0.02882624311330524</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>141.686423604949</v>
+        <v>150.0354306666667</v>
       </c>
       <c r="H5">
-        <v>141.686423604949</v>
+        <v>450.106292</v>
       </c>
       <c r="I5">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="J5">
-        <v>0.4220481671659174</v>
+        <v>0.4152507364956075</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N5">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O5">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P5">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q5">
-        <v>1300.054186616628</v>
+        <v>1460.680037640998</v>
       </c>
       <c r="R5">
-        <v>1300.054186616628</v>
+        <v>13146.12033876898</v>
       </c>
       <c r="S5">
-        <v>0.09583455144246061</v>
+        <v>0.09721679263024614</v>
       </c>
       <c r="T5">
-        <v>0.09583455144246061</v>
+        <v>0.09721679263024613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H6">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J6">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N6">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O6">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P6">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q6">
-        <v>964.7039567833197</v>
+        <v>995.777299044504</v>
       </c>
       <c r="R6">
-        <v>964.7039567833197</v>
+        <v>8961.995691400536</v>
       </c>
       <c r="S6">
-        <v>0.07111393657652168</v>
+        <v>0.06627479851334075</v>
       </c>
       <c r="T6">
-        <v>0.07111393657652168</v>
+        <v>0.06627479851334074</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H7">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J7">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N7">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O7">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P7">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q7">
-        <v>974.962966236881</v>
+        <v>984.7150580062321</v>
       </c>
       <c r="R7">
-        <v>974.962966236881</v>
+        <v>8862.435522056088</v>
       </c>
       <c r="S7">
-        <v>0.07187018780000699</v>
+        <v>0.06553854172518042</v>
       </c>
       <c r="T7">
-        <v>0.07187018780000699</v>
+        <v>0.06553854172518039</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H8">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I8">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J8">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N8">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O8">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P8">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q8">
-        <v>181.72861987664</v>
+        <v>197.401915716387</v>
       </c>
       <c r="R8">
-        <v>181.72861987664</v>
+        <v>1776.617241447483</v>
       </c>
       <c r="S8">
-        <v>0.01339627297802087</v>
+        <v>0.01313825109570641</v>
       </c>
       <c r="T8">
-        <v>0.01339627297802087</v>
+        <v>0.0131382510957064</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>67.92168737024831</v>
+        <v>68.382243</v>
       </c>
       <c r="H9">
-        <v>67.92168737024831</v>
+        <v>205.146729</v>
       </c>
       <c r="I9">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="J9">
-        <v>0.2023215981889492</v>
+        <v>0.1892604742946246</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N9">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O9">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P9">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q9">
-        <v>623.2204312952446</v>
+        <v>665.739931130862</v>
       </c>
       <c r="R9">
-        <v>623.2204312952446</v>
+        <v>5991.659380177758</v>
       </c>
       <c r="S9">
-        <v>0.04594120083439968</v>
+        <v>0.04430888296039706</v>
       </c>
       <c r="T9">
-        <v>0.04594120083439968</v>
+        <v>0.04430888296039705</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H10">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J10">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N10">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O10">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P10">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q10">
-        <v>1295.946307074577</v>
+        <v>1525.17622060836</v>
       </c>
       <c r="R10">
-        <v>1295.946307074577</v>
+        <v>13726.58598547524</v>
       </c>
       <c r="S10">
-        <v>0.09553173576189533</v>
+        <v>0.1015093905184919</v>
       </c>
       <c r="T10">
-        <v>0.09553173576189533</v>
+        <v>0.1015093905184918</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H11">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I11">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J11">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N11">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O11">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P11">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q11">
-        <v>1309.727867025795</v>
+        <v>1508.23280665988</v>
       </c>
       <c r="R11">
-        <v>1309.727867025795</v>
+        <v>13574.09525993892</v>
       </c>
       <c r="S11">
-        <v>0.09654765465950646</v>
+        <v>0.1003817073039406</v>
       </c>
       <c r="T11">
-        <v>0.09654765465950646</v>
+        <v>0.1003817073039406</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H12">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I12">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J12">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N12">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O12">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P12">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q12">
-        <v>244.1272601432782</v>
+        <v>302.3494390182049</v>
       </c>
       <c r="R12">
-        <v>244.1272601432782</v>
+        <v>2721.144951163844</v>
       </c>
       <c r="S12">
-        <v>0.01799603948170442</v>
+        <v>0.02012312207838108</v>
       </c>
       <c r="T12">
-        <v>0.01799603948170442</v>
+        <v>0.02012312207838108</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>91.2433905747086</v>
+        <v>104.737245</v>
       </c>
       <c r="H13">
-        <v>91.2433905747086</v>
+        <v>314.211735</v>
       </c>
       <c r="I13">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="J13">
-        <v>0.2717910776365635</v>
+        <v>0.2898796499701289</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N13">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O13">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P13">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q13">
-        <v>837.2104320205503</v>
+        <v>1019.67650100533</v>
       </c>
       <c r="R13">
-        <v>837.2104320205503</v>
+        <v>9177.08850904797</v>
       </c>
       <c r="S13">
-        <v>0.06171564773345727</v>
+        <v>0.06786543006931539</v>
       </c>
       <c r="T13">
-        <v>0.06171564773345727</v>
+        <v>0.06786543006931538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H14">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I14">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J14">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.2031800759692</v>
+        <v>14.561928</v>
       </c>
       <c r="N14">
-        <v>14.2031800759692</v>
+        <v>43.685784</v>
       </c>
       <c r="O14">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="P14">
-        <v>0.3514895948484353</v>
+        <v>0.3501777048818433</v>
       </c>
       <c r="Q14">
-        <v>495.122846655544</v>
+        <v>555.65317490832</v>
       </c>
       <c r="R14">
-        <v>495.122846655544</v>
+        <v>5000.87857417488</v>
       </c>
       <c r="S14">
-        <v>0.03649838322634528</v>
+        <v>0.03698196599348381</v>
       </c>
       <c r="T14">
-        <v>0.03649838322634528</v>
+        <v>0.03698196599348379</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H15">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I15">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J15">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.3542218102188</v>
+        <v>14.40015733333333</v>
       </c>
       <c r="N15">
-        <v>14.3542218102188</v>
+        <v>43.200472</v>
       </c>
       <c r="O15">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="P15">
-        <v>0.3552274618396749</v>
+        <v>0.3462875276490937</v>
       </c>
       <c r="Q15">
-        <v>500.3881613967112</v>
+        <v>549.4803395158934</v>
       </c>
       <c r="R15">
-        <v>500.3881613967112</v>
+        <v>4945.323055643041</v>
       </c>
       <c r="S15">
-        <v>0.03688652018372576</v>
+        <v>0.03657112772444348</v>
       </c>
       <c r="T15">
-        <v>0.03688652018372576</v>
+        <v>0.03657112772444347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H16">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I16">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J16">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.67556103083862</v>
+        <v>2.886742333333333</v>
       </c>
       <c r="N16">
-        <v>2.67556103083862</v>
+        <v>8.660226999999999</v>
       </c>
       <c r="O16">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="P16">
-        <v>0.06621276768242025</v>
+        <v>0.06941888497676431</v>
       </c>
       <c r="Q16">
-        <v>93.27005550192337</v>
+        <v>110.1521407507933</v>
       </c>
       <c r="R16">
-        <v>93.27005550192337</v>
+        <v>991.3692667571399</v>
       </c>
       <c r="S16">
-        <v>0.006875477979346795</v>
+        <v>0.007331268689371586</v>
       </c>
       <c r="T16">
-        <v>0.006875477979346795</v>
+        <v>0.007331268689371584</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.8599992401179</v>
+        <v>38.15794</v>
       </c>
       <c r="H17">
-        <v>34.8599992401179</v>
+        <v>114.47382</v>
       </c>
       <c r="I17">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="J17">
-        <v>0.1038391570085698</v>
+        <v>0.105609139239639</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.17557344972901</v>
+        <v>9.735567333333334</v>
       </c>
       <c r="N17">
-        <v>9.17557344972901</v>
+        <v>29.206702</v>
       </c>
       <c r="O17">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="P17">
-        <v>0.2270701756294696</v>
+        <v>0.2341158824922987</v>
       </c>
       <c r="Q17">
-        <v>319.8604834851993</v>
+        <v>371.4891941712934</v>
       </c>
       <c r="R17">
-        <v>319.8604834851993</v>
+        <v>3343.40274754164</v>
       </c>
       <c r="S17">
-        <v>0.02357877561915202</v>
+        <v>0.02472477683234014</v>
       </c>
       <c r="T17">
-        <v>0.02357877561915202</v>
+        <v>0.02472477683234013</v>
       </c>
     </row>
   </sheetData>
